--- a/scripts/Data/modelv5.xlsx
+++ b/scripts/Data/modelv5.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colette/Box Sync/N2O Research/ETNP 2018/Data/isotopomer-soup/scripts/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914989D7-8B65-A34F-A3EC-82065C612626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
   <si>
     <t>Nitrification (nM/day)</t>
   </si>
@@ -28,12 +40,6 @@
     <t>Hybrid2 (nM/day)</t>
   </si>
   <si>
-    <t>Station</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
@@ -43,83 +49,116 @@
     <t>Key</t>
   </si>
   <si>
+    <t>PS1Surface</t>
+  </si>
+  <si>
+    <t>PS1Top of oxycline</t>
+  </si>
+  <si>
+    <t>PS1Mid-oxycline</t>
+  </si>
+  <si>
+    <t>PS1Interface</t>
+  </si>
+  <si>
+    <t>PS1SCM</t>
+  </si>
+  <si>
+    <t>PS2Top of oxycline</t>
+  </si>
+  <si>
+    <t>PS2PNM</t>
+  </si>
+  <si>
+    <t>PS2Interface</t>
+  </si>
+  <si>
+    <t>PS2SCM</t>
+  </si>
+  <si>
+    <t>PS2SNM</t>
+  </si>
+  <si>
+    <t>PS2Deep ODZ core</t>
+  </si>
+  <si>
+    <t>PS2Base of ODZ</t>
+  </si>
+  <si>
+    <t>PS2Deep oxycline</t>
+  </si>
+  <si>
+    <t>PS3Top of oxycline</t>
+  </si>
+  <si>
+    <t>PS3Mid-oxycline</t>
+  </si>
+  <si>
+    <t>PS3Interface</t>
+  </si>
+  <si>
     <t>PS3Interface2</t>
   </si>
   <si>
     <t>PS3SNM</t>
   </si>
   <si>
+    <t>PS3Deep ODZ core</t>
+  </si>
+  <si>
+    <t>PS3Deep oxycline</t>
+  </si>
+  <si>
     <t>PS3SCM</t>
   </si>
   <si>
-    <t>PS1Surface</t>
-  </si>
-  <si>
-    <t>PS1Top of oxycline</t>
-  </si>
-  <si>
-    <t>PS1Mid-oxycline</t>
-  </si>
-  <si>
-    <t>PS1Interface</t>
-  </si>
-  <si>
-    <t>PS1SCM</t>
-  </si>
-  <si>
-    <t>PS2Top of oxycline</t>
-  </si>
-  <si>
-    <t>PS2PNM</t>
-  </si>
-  <si>
-    <t>PS2Interface</t>
-  </si>
-  <si>
-    <t>PS2SCM</t>
-  </si>
-  <si>
-    <t>PS2SNM</t>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>PS2</t>
   </si>
   <si>
     <t>PS3</t>
   </si>
   <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>PS2</t>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Top of oxycline</t>
+  </si>
+  <si>
+    <t>Mid-oxycline</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>PNM</t>
+  </si>
+  <si>
+    <t>SNM</t>
+  </si>
+  <si>
+    <t>Deep ODZ core</t>
+  </si>
+  <si>
+    <t>Base of ODZ</t>
+  </si>
+  <si>
+    <t>Deep oxycline</t>
   </si>
   <si>
     <t>Interface2</t>
-  </si>
-  <si>
-    <t>SNM</t>
-  </si>
-  <si>
-    <t>SCM</t>
-  </si>
-  <si>
-    <t>Surface</t>
-  </si>
-  <si>
-    <t>Top of oxycline</t>
-  </si>
-  <si>
-    <t>Mid-oxycline</t>
-  </si>
-  <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>PNM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +221,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +307,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +359,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,14 +552,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -504,382 +589,615 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0.01993102998096826</v>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>1.266824840137293</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1387300290548444</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>4.2905462899047548E-4</v>
       </c>
       <c r="H2">
-        <v>45.83632767136952</v>
+        <v>0.26300723905208162</v>
       </c>
       <c r="I2">
-        <v>0.5047169378576682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.37845674147548453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>0.000164885720707511</v>
-      </c>
-      <c r="C3">
-        <v>0.03860334497404958</v>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>0.6269650258402383</v>
+        <v>1.1163235531040321E-5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>62.49976706778651</v>
+        <v>0.66019818618357118</v>
       </c>
       <c r="I3">
-        <v>0.882472144353927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.51519845935984787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.429292553010165</v>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>1.357958384417344</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1128641234207301</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
+        <v>1.575273358728452E-3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1.4306345869978671E-3</v>
       </c>
       <c r="H4">
-        <v>164.3084828004065</v>
+        <v>1.6299504706986161</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.30271129961714921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0004290546289904755</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
+        <v>8.1179303023419438E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.1045941306175571</v>
+      </c>
+      <c r="G5">
+        <v>5.4346357832742671E-2</v>
       </c>
       <c r="H5">
-        <v>0.2630072390520816</v>
+        <v>17.157737761853461</v>
       </c>
       <c r="I5">
-        <v>0.3784567414754845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.48696498265733928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>1.116323553104032E-05</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.056798765499927E-4</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
+        <v>1.4155207863599079E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.15317293010805019</v>
+      </c>
+      <c r="G6">
+        <v>4.0958223500489187E-2</v>
       </c>
       <c r="H6">
-        <v>0.6601981861835712</v>
+        <v>13.53257574097937</v>
       </c>
       <c r="I6">
-        <v>0.5151984593598479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.39659472868451973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.001575273358728452</v>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.1752471844287721E-5</v>
       </c>
       <c r="E7">
-        <v>0.001430634586997867</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.2698292824678009E-4</v>
       </c>
       <c r="H7">
-        <v>1.629950470698616</v>
+        <v>0.38433935299120942</v>
       </c>
       <c r="I7">
-        <v>0.3027112996171492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.008117930302341944</v>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>1.104594130617557</v>
+        <v>3.2291258998929121E-4</v>
       </c>
       <c r="E8">
-        <v>0.05434635783274267</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.5785293540171101E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>17.15773776185346</v>
+        <v>3.7053469277485891</v>
       </c>
       <c r="I8">
-        <v>0.4869649826573393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.41749029248198177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>0.0002056798765499927</v>
-      </c>
-      <c r="C9">
-        <v>0.001415520786359908</v>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>0.1531729301080502</v>
+        <v>2.288969579502855E-4</v>
       </c>
       <c r="E9">
-        <v>0.04095822350048919</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
+        <v>8.9028766196509439E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.3349370955500759E-2</v>
+      </c>
+      <c r="G9">
+        <v>6.3426770803603913E-2</v>
       </c>
       <c r="H9">
-        <v>13.53257574097937</v>
+        <v>9.1977695474889334</v>
       </c>
       <c r="I9">
-        <v>0.3965947286845197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.55445625615700489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>1.175247184428772E-05</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0002269829282467801</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
+        <v>4.2196826278349628E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.7323384831080143</v>
+      </c>
+      <c r="G10">
+        <v>7.7510265615050977E-2</v>
       </c>
       <c r="H10">
-        <v>0.3843393529912094</v>
+        <v>23.33445102023321</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.36210409444818531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>0.0003229125899892912</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>0.0157852935401711</v>
+        <v>1.697298539798349E-7</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
+        <v>1.572583003294125E-2</v>
+      </c>
+      <c r="F11">
+        <v>4.2823239372926279E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.0201945565875401E-2</v>
       </c>
       <c r="H11">
-        <v>3.705346927748589</v>
+        <v>6.2082551035401448</v>
       </c>
       <c r="I11">
-        <v>0.4174902924819818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.40620524965342608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>0.0002288969579502855</v>
-      </c>
-      <c r="C12">
-        <v>0.008902876619650944</v>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>0.01334937095550076</v>
+        <v>2.909166820203429E-3</v>
       </c>
       <c r="E12">
-        <v>0.06342677080360391</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
+        <v>5.5757543303443331E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.1801178689245086</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>9.197769547488933</v>
+        <v>9.2905508319931975</v>
       </c>
       <c r="I12">
-        <v>0.5544562561570049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0.04219682627834963</v>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
       </c>
       <c r="D13">
-        <v>0.7323384831080143</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07751026561505098</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
+        <v>1.293269265567154E-2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>6.5962077833664506E-2</v>
       </c>
       <c r="H13">
-        <v>23.33445102023321</v>
+        <v>78.991138225547644</v>
       </c>
       <c r="I13">
-        <v>0.3621040944481853</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.57542814248969254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
-        <v>1.697298539798349E-07</v>
-      </c>
-      <c r="C14">
-        <v>0.01572583003294125</v>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
       </c>
       <c r="D14">
-        <v>0.04282323937292628</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0102019455658754</v>
-      </c>
-      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>16.384358091676841</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>2.3611773836628439E-4</v>
+      </c>
+      <c r="E15">
+        <v>5.1607511126990852E-5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>5.5619566865673112E-5</v>
+      </c>
+      <c r="H15">
+        <v>0.4700444385203989</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>1.078744902536462E-4</v>
+      </c>
+      <c r="E16">
+        <v>1.5537220873609379E-4</v>
+      </c>
+      <c r="F16">
+        <v>5.1111769285259177E-4</v>
+      </c>
+      <c r="G16">
+        <v>3.8264268586615802E-4</v>
+      </c>
+      <c r="H16">
+        <v>0.99776854836588225</v>
+      </c>
+      <c r="I16">
+        <v>5.9057493121739371E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>9.8054134181793651E-2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>14.41357523494443</v>
+      </c>
+      <c r="I17">
+        <v>0.73085641523701539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1.9931029980968261E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.266824840137293</v>
+      </c>
+      <c r="G18">
+        <v>0.13873002905484441</v>
+      </c>
+      <c r="H18">
+        <v>45.836327671369517</v>
+      </c>
+      <c r="I18">
+        <v>0.50471693785766825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H14">
-        <v>6.208255103540145</v>
-      </c>
-      <c r="I14">
-        <v>0.4062052496534261</v>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>1.6488572070751101E-4</v>
+      </c>
+      <c r="E19">
+        <v>3.8603344974049582E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.62696502584023828</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>62.499767067786507</v>
+      </c>
+      <c r="I19">
+        <v>0.88247214435392696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>2.491884489004838E-7</v>
+      </c>
+      <c r="E20">
+        <v>1.186591809974508E-2</v>
+      </c>
+      <c r="F20">
+        <v>2.8632016017255669E-2</v>
+      </c>
+      <c r="G20">
+        <v>2.6758754497029719E-2</v>
+      </c>
+      <c r="H20">
+        <v>7.1123575965623003</v>
+      </c>
+      <c r="I20">
+        <v>0.40990194202010322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>1.4590240436245791E-4</v>
+      </c>
+      <c r="E21">
+        <v>2.7781193934151571E-3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.5481778521358651E-2</v>
+      </c>
+      <c r="H21">
+        <v>4.6498593765926346</v>
+      </c>
+      <c r="I21">
+        <v>0.4021106147339798</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.429292553010165</v>
+      </c>
+      <c r="F22">
+        <v>1.357958384417344</v>
+      </c>
+      <c r="G22">
+        <v>0.11286412342073</v>
+      </c>
+      <c r="H22">
+        <v>164.30848280040649</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/Data/modelv5.xlsx
+++ b/scripts/Data/modelv5.xlsx
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.005557785432514305</v>
+        <v>0.006080101788452492</v>
       </c>
       <c r="F21">
-        <v>1.434510131207401</v>
+        <v>1.376994173579743</v>
       </c>
       <c r="G21">
-        <v>5.512521157774729E-05</v>
+        <v>3.548110086667569E-05</v>
       </c>
       <c r="H21">
-        <v>2.903518118847876</v>
+        <v>2.687699681754618</v>
       </c>
       <c r="I21">
         <v>1</v>
